--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\바탕 화면\CCIT_02\Project\인게임\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777E79F-E00D-4737-8B6B-2FBFDE475CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BA984-49D4-4DE1-9E7C-8F3F26A8D365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="96">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +483,51 @@
   </si>
   <si>
     <t>시간 단위 = 초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 싸움꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 철거꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfdestoryer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfdestoryer_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>일반적인 늑대보다 2배의 크기를 갖고 있습니다.
+상반신이 거의 노출된 의상을 입고 있습니다.
+양손으로 해머를 들고 있습니다.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격 시 해머를 위로 들어올렸다가 아래로 내려칩니다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2066,7 +2111,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="2943225"/>
+          <a:off x="8216762" y="3455090"/>
           <a:ext cx="1009524" cy="971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2204,6 +2249,403 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>417444</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1785581</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1456744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D7AB34-5840-46BD-9234-5A6EF53FDEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7996031" y="4898335"/>
+          <a:ext cx="1368137" cy="1337474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1654453</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2965350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCC000F-AD54-476D-A1D0-AE6D5D083F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20628253" y="4848224"/>
+          <a:ext cx="1310897" cy="1514476"/>
+          <a:chOff x="20628253" y="4848224"/>
+          <a:chExt cx="1310897" cy="1514476"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="그림 17" descr=" ">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE61016-4977-49D9-8962-23F543204993}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId16">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                        <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                        <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                        <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                        <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                        <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                        <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                        <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="21145500" y="4848224"/>
+            <a:ext cx="793650" cy="1362075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="그림 14" descr=" ">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729A8EEC-B508-4B72-A35E-1B5385B6E4E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId18">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="2532" b="97288" l="0" r="98759">
+                        <a14:foregroundMark x1="6738" y1="22242" x2="6738" y2="26040"/>
+                        <a14:foregroundMark x1="8511" y1="6872" x2="12057" y2="12297"/>
+                        <a14:foregroundMark x1="23050" y1="8680" x2="33333" y2="2532"/>
+                        <a14:foregroundMark x1="9043" y1="20976" x2="0" y2="24231"/>
+                        <a14:foregroundMark x1="88475" y1="86076" x2="98759" y2="97288"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="19453984">
+            <a:off x="20628253" y="5323648"/>
+            <a:ext cx="1062552" cy="1039052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1679475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA81EB0-A950-45CC-9AAE-ECBEBDB4756C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId16">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="23612475" y="4867275"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>726099</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1419077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D301421E-D1BD-419C-B0C5-48B991A67EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22974301" y="5534025"/>
+          <a:ext cx="478448" cy="666602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2476499</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3114675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1464399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEA551B-5331-471E-9643-E985E20D7C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="71099" t="49000"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25203149" y="4848225"/>
+          <a:ext cx="638176" cy="1397724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3061,7 +3503,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3093,7 +3535,7 @@
   <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3120,7 +3562,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3196,27 +3638,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3227,52 +3669,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -3286,31 +3731,31 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E22" si="0">VLOOKUP(D2,카테고리_피해타입,2,FALSE)</f>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" ref="F2:F22" si="0">VLOOKUP(E2,카테고리_피해타입,2,FALSE)</f>
         <v>범위</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3324,13 +3769,16 @@
         <v>22</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -3342,33 +3790,33 @@
         <v>중거리</v>
       </c>
       <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="F3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>80</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3387,8 +3835,11 @@
       <c r="R3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3400,33 +3851,33 @@
         <v>원거리</v>
       </c>
       <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>범위</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>60</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>30</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3445,9 +3896,14 @@
       <c r="R4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -3456,29 +3912,33 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>범위</v>
       </c>
-      <c r="F5" s="2">
-        <v>1000</v>
-      </c>
       <c r="G5" s="2">
         <v>1000</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" s="2" t="s">
         <v>22</v>
       </c>
@@ -3492,13 +3952,16 @@
         <v>22</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="str">
@@ -3506,21 +3969,19 @@
         <v>근거리</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3534,13 +3995,16 @@
         <v>22</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str">
@@ -3548,21 +4012,19 @@
         <v>근거리</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3576,13 +4038,16 @@
         <v>22</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="str">
@@ -3590,21 +4055,19 @@
         <v>근거리</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3618,13 +4081,16 @@
         <v>22</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="str">
@@ -3632,21 +4098,19 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3660,13 +4124,16 @@
         <v>22</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str">
@@ -3674,21 +4141,19 @@
         <v>근거리</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3702,13 +4167,16 @@
         <v>22</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="str">
@@ -3716,21 +4184,19 @@
         <v>근거리</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3744,13 +4210,16 @@
         <v>22</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="str">
@@ -3758,21 +4227,19 @@
         <v>근거리</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M12" s="2" t="s">
         <v>22</v>
       </c>
@@ -3786,13 +4253,16 @@
         <v>22</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="str">
@@ -3800,21 +4270,19 @@
         <v>근거리</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3828,13 +4296,16 @@
         <v>22</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="str">
@@ -3842,21 +4313,19 @@
         <v>근거리</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3870,13 +4339,16 @@
         <v>22</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="str">
@@ -3884,21 +4356,19 @@
         <v>근거리</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M15" s="2" t="s">
         <v>22</v>
       </c>
@@ -3912,13 +4382,16 @@
         <v>22</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="str">
@@ -3926,21 +4399,19 @@
         <v>근거리</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M16" s="2" t="s">
         <v>22</v>
       </c>
@@ -3954,13 +4425,16 @@
         <v>22</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
@@ -3968,21 +4442,19 @@
         <v>근거리</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="str">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3996,13 +4468,16 @@
         <v>22</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="str">
@@ -4010,21 +4485,19 @@
         <v>근거리</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M18" s="2" t="s">
         <v>22</v>
       </c>
@@ -4038,13 +4511,16 @@
         <v>22</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="str">
@@ -4052,21 +4528,19 @@
         <v>근거리</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M19" s="2" t="s">
         <v>22</v>
       </c>
@@ -4080,13 +4554,16 @@
         <v>22</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="str">
@@ -4094,21 +4571,19 @@
         <v>근거리</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="str">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M20" s="2" t="s">
         <v>22</v>
       </c>
@@ -4122,13 +4597,16 @@
         <v>22</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="str">
@@ -4136,21 +4614,19 @@
         <v>근거리</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="str">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M21" s="2" t="s">
         <v>22</v>
       </c>
@@ -4164,13 +4640,16 @@
         <v>22</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="str">
@@ -4178,21 +4657,19 @@
         <v>근거리</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="str">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M22" s="2" t="s">
         <v>22</v>
       </c>
@@ -4206,14 +4683,17 @@
         <v>22</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="S22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4228,7 +4708,7 @@
           <x14:formula1>
             <xm:f>Index!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:R22</xm:sqref>
+          <xm:sqref>M2:S22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4240,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4258,7 +4738,7 @@
     <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="5" customWidth="1"/>
     <col min="13" max="13" width="49.25" customWidth="1"/>
-    <col min="14" max="14" width="24.25" customWidth="1"/>
+    <col min="14" max="14" width="46.125" customWidth="1"/>
     <col min="15" max="15" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4429,24 +4909,46 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>근거리</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -4481,7 +4983,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\바탕 화면\CCIT_02\Project\인게임\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777E79F-E00D-4737-8B6B-2FBFDE475CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA8DD3F-5085-4E4B-A2F6-A4C901F3645C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -3064,19 +3064,19 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -3096,14 +3096,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3119,19 +3119,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AFDFF8-ADE8-4030-BFB0-8E086666FD57}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
     <col min="3" max="3" width="122.5" customWidth="1"/>
-    <col min="4" max="9" width="10.625" customWidth="1"/>
+    <col min="4" max="9" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -3198,25 +3198,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="str">
@@ -3540,7 +3540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str">
@@ -3582,7 +3582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="str">
@@ -3624,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="str">
@@ -3666,7 +3666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str">
@@ -3708,7 +3708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="str">
@@ -3750,7 +3750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="str">
@@ -3792,7 +3792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="str">
@@ -3834,7 +3834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="str">
@@ -3876,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="str">
@@ -3918,7 +3918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="str">
@@ -3960,7 +3960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
@@ -4002,7 +4002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="str">
@@ -4044,7 +4044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="str">
@@ -4086,7 +4086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="str">
@@ -4128,7 +4128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="str">
@@ -4170,7 +4170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="str">
@@ -4212,7 +4212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>88</v>
       </c>
@@ -4244,25 +4244,25 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="26.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.875" customWidth="1"/>
-    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8984375" customWidth="1"/>
+    <col min="11" max="11" width="33.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="49.25" customWidth="1"/>
-    <col min="14" max="14" width="24.25" customWidth="1"/>
+    <col min="13" max="13" width="49.19921875" customWidth="1"/>
+    <col min="14" max="14" width="24.19921875" customWidth="1"/>
     <col min="15" max="15" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="str">
@@ -4448,7 +4448,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="str">
@@ -4484,19 +4484,19 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -4505,37 +4505,37 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -4555,12 +4555,12 @@
       <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" s="2">
         <v>2</v>
       </c>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BA984-49D4-4DE1-9E7C-8F3F26A8D365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E875B-8259-43A2-9592-9FB4CE87C871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="101">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,18 +478,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스몹(예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시간 단위 = 초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>늑대 싸움꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>망치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,6 +499,35 @@
   </si>
   <si>
     <t>사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfarcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfarcher_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfarcher_Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>털 목도리를 목에 두르고 있습니다.
+손에는 자신 키의 절반정도 되는 활을 들고있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,7 +547,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>공격 시 해머를 위로 들어올렸다가 아래로 내려칩니다.</t>
+      <t>공격 시 해머를 양손으로 위로 들어올렸다가 바닥까지 내려칩니다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1683,6 +1704,150 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>793760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>339185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1064223</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1317340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C537DD-B3BC-4CAF-B790-85630AC28E1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1596" b="98582" l="27837" r="54255">
+                      <a14:foregroundMark x1="43440" y1="10461" x2="51950" y2="1596"/>
+                      <a14:foregroundMark x1="28014" y1="39362" x2="28546" y2="62057"/>
+                      <a14:foregroundMark x1="44326" y1="86879" x2="54255" y2="98582"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25759" t="1404" r="47710" b="2511"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="20363572" flipV="1">
+          <a:off x="23512956" y="6642250"/>
+          <a:ext cx="270463" cy="978155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2044434</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>339185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2314897</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1317340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3356A8BE-840D-4C12-86DD-B21DDF52DB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1596" b="98582" l="27837" r="54255">
+                      <a14:foregroundMark x1="43440" y1="10461" x2="51950" y2="1596"/>
+                      <a14:foregroundMark x1="28014" y1="39362" x2="28546" y2="62057"/>
+                      <a14:foregroundMark x1="44326" y1="86879" x2="54255" y2="98582"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25759" t="1404" r="47710" b="2511"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="20363572" flipV="1">
+          <a:off x="21024739" y="6644270"/>
+          <a:ext cx="270463" cy="978155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1708,7 +1873,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1752,7 +1917,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1796,7 +1961,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1840,7 +2005,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1884,7 +2049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1928,7 +2093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1972,7 +2137,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2016,7 +2181,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2060,7 +2225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2104,7 +2269,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2148,7 +2313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2192,7 +2357,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2236,7 +2401,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2280,7 +2445,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2340,7 +2505,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20628253" y="4848224"/>
+          <a:off x="20622810" y="4842781"/>
           <a:ext cx="1310897" cy="1514476"/>
           <a:chOff x="20628253" y="4848224"/>
           <a:chExt cx="1310897" cy="1514476"/>
@@ -2360,11 +2525,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId16">
+                  <a14:imgLayer r:embed="rId18">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
                         <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
@@ -2421,11 +2586,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId18">
+                  <a14:imgLayer r:embed="rId20">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="2532" b="97288" l="0" r="98759">
                         <a14:foregroundMark x1="6738" y1="22242" x2="6738" y2="26040"/>
@@ -2498,11 +2663,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId16">
+                <a14:imgLayer r:embed="rId18">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
                       <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
@@ -2574,7 +2739,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2618,7 +2783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2632,6 +2797,487 @@
         <a:xfrm>
           <a:off x="25203149" y="4848225"/>
           <a:ext cx="638176" cy="1397724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405945</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>529118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1897158</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>941444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8945E3C7-6A8D-455C-8448-2DA9BEBFB70E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25759" t="1404" r="47710" b="2511"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="2700000">
+          <a:off x="8527289" y="6295224"/>
+          <a:ext cx="412326" cy="1491213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>612566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1666412</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>787329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F5A49-152B-4E70-AFE4-97D747FA25D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="13617437" y="6299454"/>
+          <a:ext cx="174763" cy="1412087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2102128</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2895778</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1428749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B63082-C797-4465-BA2D-44F75F92B500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId18">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="21082433" y="6371759"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>675996</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>791285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1339526</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>873513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AB17E3-09F1-4366-9BCF-34984552E0E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId24">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3369" b="88121" l="63298" r="71986">
+                      <a14:foregroundMark x1="66844" y1="5142" x2="66844" y2="5142"/>
+                      <a14:foregroundMark x1="67553" y1="3369" x2="65426" y2="8688"/>
+                      <a14:foregroundMark x1="68617" y1="80496" x2="66844" y2="88121"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="19946952" y="6805719"/>
+          <a:ext cx="82228" cy="663530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>791040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1584690</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1428749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E19078-830B-4845-8854-F65BB35C9E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId18">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="23527775" y="6375586"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>336175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>683558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116DC022-EC34-48CC-9C1E-2A0E6FB86EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22927235" y="5121087"/>
+          <a:ext cx="560294" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>비교</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>858272</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>557044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1518557</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1115786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35" descr="옷/털/털채색/목도리/채색">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B8AFD80-6611-4FE6-947E-668390BD565F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId26">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="28011" b="42857" l="7979" r="46809">
+                      <a14:foregroundMark x1="29078" y1="28221" x2="32447" y2="28291"/>
+                      <a14:foregroundMark x1="9929" y1="38936" x2="11525" y2="41877"/>
+                      <a14:foregroundMark x1="8333" y1="40476" x2="8511" y2="38445"/>
+                      <a14:foregroundMark x1="28546" y1="42367" x2="34752" y2="42367"/>
+                      <a14:foregroundMark x1="43617" y1="42367" x2="46277" y2="42367"/>
+                      <a14:foregroundMark x1="46454" y1="41457" x2="46809" y2="41737"/>
+                      <a14:foregroundMark x1="31738" y1="42857" x2="32801" y2="42857"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5416" t="27232" r="48447" b="56323"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23587643" y="6865315"/>
+          <a:ext cx="660285" cy="558742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3561,7 +4207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AFDFF8-ADE8-4030-BFB0-8E086666FD57}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -3640,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3669,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>74</v>
@@ -3934,7 +4580,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>14</v>
@@ -3962,23 +4608,41 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>근거리</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>중거리</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3998,7 +4662,7 @@
         <v>22</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>23</v>
@@ -4694,7 +5358,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4720,8 +5384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4739,7 +5403,7 @@
     <col min="12" max="12" width="23.5" style="5" customWidth="1"/>
     <col min="13" max="13" width="49.25" customWidth="1"/>
     <col min="14" max="14" width="46.125" customWidth="1"/>
-    <col min="15" max="15" width="57.5" customWidth="1"/>
+    <col min="15" max="15" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -4910,7 +5574,7 @@
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -4920,15 +5584,15 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5"/>
+        <v>91</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="6" t="s">
         <v>44</v>
       </c>
@@ -4947,28 +5611,48 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+        <v>중거리</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E875B-8259-43A2-9592-9FB4CE87C871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED5930-F63F-4B58-9F3D-EC240F20FA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3450" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -4286,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
@@ -4455,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>66</v>
@@ -4516,7 +4516,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>67</v>
@@ -4577,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>90</v>
@@ -4638,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>93</v>
@@ -5384,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED5930-F63F-4B58-9F3D-EC240F20FA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60E54B7-8074-48F9-B43D-2ABA180431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3450" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'유닛 테이블'!$A$1:$R$1</definedName>
     <definedName name="카테고르_유닛타입">Index!$C$2:$D$4</definedName>
     <definedName name="카테고리_유닛타입">[1]index!$C$2:$D$4</definedName>
     <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +100,6 @@
   </si>
   <si>
     <t>Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -518,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit_Wolfarcher_Arrow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +538,106 @@
       </rPr>
       <t>공격 시 해머를 양손으로 위로 들어올렸다가 바닥까지 내려칩니다.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfthief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 포수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfshooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 방패병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 장창병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfshieldman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리볼버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfspearman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 쉴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfthief_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfshooter_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfshieldman_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfspearman_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfshooter_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후드를 머리에 쓰고 있습니다.
+손에 단검을 들고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 눈에 단안경을 쓰고 있습니다.
+손에 리볼버를 들고 있습니다.
+공격 시 손을 들어 조준한 뒤 총을 쏩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 손으로 방패를 들고 있습니다.
+상반신은 갑옷을 입고 있으며, 하반신은 맨 다리입니다.
+방패는 입을 가릴 정도의 크기입니다.
+이 유닛은 공격하지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 손으로 장창을 들고 있습니다.
+뿔이 하나 달린 투구를 쓰고 있습니다.
+공격 시 전방을 향해 창을 찌릅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -673,6 +762,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -681,6 +776,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5B9BD5"/>
       <color rgb="FFA20000"/>
       <color rgb="FFFF6201"/>
     </mruColors>
@@ -1704,6 +1800,175 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2004315</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>762693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2240194</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1236866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 2" descr="8-in-Dagger—Wood-Background">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EB1CD7-E1B0-4278-8A34-7C26E10C04AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3351" b="94621" l="9752" r="89894">
+                      <a14:foregroundMark x1="47872" y1="5026" x2="49113" y2="15432"/>
+                      <a14:foregroundMark x1="46631" y1="3351" x2="51064" y2="3439"/>
+                      <a14:foregroundMark x1="49468" y1="94621" x2="46986" y2="85009"/>
+                      <a14:foregroundMark x1="43972" y1="4497" x2="43972" y2="4497"/>
+                      <a14:foregroundMark x1="42908" y1="4762" x2="42908" y2="4762"/>
+                      <a14:foregroundMark x1="59574" y1="36155" x2="70213" y2="35979"/>
+                      <a14:foregroundMark x1="55496" y1="37390" x2="59043" y2="35626"/>
+                      <a14:backgroundMark x1="17553" y1="46120" x2="26064" y2="41005"/>
+                      <a14:backgroundMark x1="27128" y1="48060" x2="33511" y2="44621"/>
+                      <a14:backgroundMark x1="36879" y1="40035" x2="34043" y2="41005"/>
+                      <a14:backgroundMark x1="35816" y1="38624" x2="35993" y2="44004"/>
+                      <a14:backgroundMark x1="28546" y1="38360" x2="41667" y2="39418"/>
+                      <a14:backgroundMark x1="62589" y1="41975" x2="85816" y2="65256"/>
+                      <a14:backgroundMark x1="57624" y1="40653" x2="79610" y2="41358"/>
+                      <a14:backgroundMark x1="61702" y1="28307" x2="90248" y2="19048"/>
+                      <a14:backgroundMark x1="34929" y1="31922" x2="11702" y2="20459"/>
+                      <a14:backgroundMark x1="58688" y1="33069" x2="62057" y2="29718"/>
+                      <a14:backgroundMark x1="57270" y1="29894" x2="58156" y2="24162"/>
+                      <a14:backgroundMark x1="55851" y1="26984" x2="56915" y2="24339"/>
+                      <a14:backgroundMark x1="39894" y1="38624" x2="42199" y2="39418"/>
+                      <a14:backgroundMark x1="38298" y1="34303" x2="38298" y2="34303"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="8100000">
+          <a:off x="20978115" y="8594964"/>
+          <a:ext cx="235879" cy="474173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1910215</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>931159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2245700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1339918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 2" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD4B8D5-824F-4097-8059-CAAAA90BC7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9464" b="89590" l="1064" r="96099">
+                      <a14:foregroundMark x1="5142" y1="33438" x2="13652" y2="32492"/>
+                      <a14:foregroundMark x1="1418" y1="35331" x2="1418" y2="31861"/>
+                      <a14:foregroundMark x1="88652" y1="65300" x2="92376" y2="75079"/>
+                      <a14:foregroundMark x1="95035" y1="75079" x2="96099" y2="81388"/>
+                      <a14:foregroundMark x1="65780" y1="63722" x2="70390" y2="59621"/>
+                      <a14:foregroundMark x1="72518" y1="64669" x2="69504" y2="70347"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="18889578">
+          <a:off x="20847378" y="10324067"/>
+          <a:ext cx="408759" cy="335485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>793760</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1729,11 +1994,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
+                <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="1596" b="98582" l="27837" r="54255">
                       <a14:foregroundMark x1="43440" y1="10461" x2="51950" y2="1596"/>
@@ -1801,11 +2066,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
+                <a14:imgLayer r:embed="rId6">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="1596" b="98582" l="27837" r="54255">
                       <a14:foregroundMark x1="43440" y1="10461" x2="51950" y2="1596"/>
@@ -1873,7 +2138,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1917,7 +2182,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1961,7 +2226,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2005,7 +2270,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2049,7 +2314,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2093,7 +2358,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2137,7 +2402,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2181,7 +2446,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2225,7 +2490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2269,7 +2534,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2313,7 +2578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2357,7 +2622,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2401,7 +2666,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2445,7 +2710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2525,11 +2790,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId18">
+                  <a14:imgLayer r:embed="rId22">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
                         <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
@@ -2586,11 +2851,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId20">
+                  <a14:imgLayer r:embed="rId24">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="2532" b="97288" l="0" r="98759">
                         <a14:foregroundMark x1="6738" y1="22242" x2="6738" y2="26040"/>
@@ -2663,11 +2928,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId18">
+                <a14:imgLayer r:embed="rId22">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
                       <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
@@ -2739,7 +3004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2783,7 +3048,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2842,7 +3107,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2901,7 +3166,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2960,11 +3225,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId18">
+                <a14:imgLayer r:embed="rId22">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
                       <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
@@ -2991,78 +3256,6 @@
         <a:xfrm flipH="1">
           <a:off x="21082433" y="6371759"/>
           <a:ext cx="793650" cy="1362075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>675996</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>791285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1339526</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>873513</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AB17E3-09F1-4366-9BCF-34984552E0E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId24">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="3369" b="88121" l="63298" r="71986">
-                      <a14:foregroundMark x1="66844" y1="5142" x2="66844" y2="5142"/>
-                      <a14:foregroundMark x1="67553" y1="3369" x2="65426" y2="8688"/>
-                      <a14:foregroundMark x1="68617" y1="80496" x2="66844" y2="88121"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="19946952" y="6805719"/>
-          <a:ext cx="82228" cy="663530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3108,11 +3301,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId18">
+                <a14:imgLayer r:embed="rId22">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
                       <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
@@ -3247,11 +3440,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId26">
+                <a14:imgLayer r:embed="rId28">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="28011" b="42857" l="7979" r="46809">
                       <a14:foregroundMark x1="29078" y1="28221" x2="32447" y2="28291"/>
@@ -3278,6 +3471,1500 @@
         <a:xfrm>
           <a:off x="23587643" y="6865315"/>
           <a:ext cx="660285" cy="558742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>775607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1251856</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1414092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 2" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E27D98F-E8B4-4167-9F1D-CE4890493186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId30">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="21115" b="93832" l="55142" r="90603">
+                      <a14:foregroundMark x1="57092" y1="82325" x2="56560" y2="89561"/>
+                      <a14:foregroundMark x1="56560" y1="89561" x2="67730" y2="90985"/>
+                      <a14:foregroundMark x1="67730" y1="90985" x2="78191" y2="90747"/>
+                      <a14:foregroundMark x1="78191" y1="90747" x2="78191" y2="90629"/>
+                      <a14:foregroundMark x1="60106" y1="93832" x2="77660" y2="92052"/>
+                      <a14:foregroundMark x1="63475" y1="90510" x2="70035" y2="51246"/>
+                      <a14:foregroundMark x1="77128" y1="89087" x2="83688" y2="46026"/>
+                      <a14:foregroundMark x1="68972" y1="21234" x2="70792" y2="21322"/>
+                      <a14:foregroundMark x1="78014" y1="24318" x2="86879" y2="25979"/>
+                      <a14:foregroundMark x1="87943" y1="25741" x2="88652" y2="27877"/>
+                      <a14:foregroundMark x1="89184" y1="25030" x2="86170" y2="29893"/>
+                      <a14:foregroundMark x1="88475" y1="26453" x2="79433" y2="88375"/>
+                      <a14:foregroundMark x1="79433" y1="88375" x2="78723" y2="89561"/>
+                      <a14:foregroundMark x1="81383" y1="80427" x2="84574" y2="62752"/>
+                      <a14:foregroundMark x1="83333" y1="63820" x2="88298" y2="39383"/>
+                      <a14:foregroundMark x1="86879" y1="45552" x2="90603" y2="25030"/>
+                      <a14:foregroundMark x1="67199" y1="21352" x2="67199" y2="21352"/>
+                      <a14:foregroundMark x1="67376" y1="21115" x2="67199" y2="21115"/>
+                      <a14:foregroundMark x1="66489" y1="21234" x2="69149" y2="21352"/>
+                      <a14:backgroundMark x1="77128" y1="20759" x2="83333" y2="21827"/>
+                      <a14:backgroundMark x1="75355" y1="21115" x2="75355" y2="21115"/>
+                      <a14:backgroundMark x1="73050" y1="20878" x2="77482" y2="21471"/>
+                      <a14:backgroundMark x1="82270" y1="21590" x2="85284" y2="22183"/>
+                      <a14:backgroundMark x1="71454" y1="20759" x2="73759" y2="21234"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51571" t="19551" r="7622" b="4850"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8354786" y="12491356"/>
+          <a:ext cx="476249" cy="1318843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1660071</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1319892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 2" descr="UnitedCutlery.Com: M48 Magnum Spear With Sheath - UC3137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F74C615-DC5D-4AF3-A07C-B4EAD9FA6E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId32">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="2128" b="96454" l="3901" r="96809">
+                      <a14:foregroundMark x1="3901" y1="96631" x2="12766" y2="88830"/>
+                      <a14:foregroundMark x1="88475" y1="11170" x2="93794" y2="3369"/>
+                      <a14:foregroundMark x1="93794" y1="5319" x2="96809" y2="2128"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8028215" y="10980964"/>
+          <a:ext cx="1211035" cy="1211035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2054678</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1245923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 2" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707A7ADE-948C-485E-AE5B-F490E1C72D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId34">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9464" b="89590" l="1064" r="96099">
+                      <a14:foregroundMark x1="5142" y1="33438" x2="13652" y2="32492"/>
+                      <a14:foregroundMark x1="1418" y1="35331" x2="1418" y2="31861"/>
+                      <a14:foregroundMark x1="88652" y1="65300" x2="92376" y2="75079"/>
+                      <a14:foregroundMark x1="95035" y1="75079" x2="96099" y2="81388"/>
+                      <a14:foregroundMark x1="65780" y1="63722" x2="70390" y2="59621"/>
+                      <a14:foregroundMark x1="72518" y1="64669" x2="69504" y2="70347"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7756072" y="9538608"/>
+          <a:ext cx="1877785" cy="1055422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769669</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1520260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 2" descr="8-in-Dagger—Wood-Background">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5093F443-9E20-45A6-85F7-D67127A47856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId36">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3351" b="94621" l="9752" r="89894">
+                      <a14:foregroundMark x1="47872" y1="5026" x2="49113" y2="15432"/>
+                      <a14:foregroundMark x1="46631" y1="3351" x2="51064" y2="3439"/>
+                      <a14:foregroundMark x1="49468" y1="94621" x2="46986" y2="85009"/>
+                      <a14:foregroundMark x1="43972" y1="4497" x2="43972" y2="4497"/>
+                      <a14:foregroundMark x1="42908" y1="4762" x2="42908" y2="4762"/>
+                      <a14:foregroundMark x1="59574" y1="36155" x2="70213" y2="35979"/>
+                      <a14:foregroundMark x1="55496" y1="37390" x2="59043" y2="35626"/>
+                      <a14:backgroundMark x1="17553" y1="46120" x2="26064" y2="41005"/>
+                      <a14:backgroundMark x1="27128" y1="48060" x2="33511" y2="44621"/>
+                      <a14:backgroundMark x1="36879" y1="40035" x2="34043" y2="41005"/>
+                      <a14:backgroundMark x1="35816" y1="38624" x2="35993" y2="44004"/>
+                      <a14:backgroundMark x1="28546" y1="38360" x2="41667" y2="39418"/>
+                      <a14:backgroundMark x1="62589" y1="41975" x2="85816" y2="65256"/>
+                      <a14:backgroundMark x1="57624" y1="40653" x2="79610" y2="41358"/>
+                      <a14:backgroundMark x1="61702" y1="28307" x2="90248" y2="19048"/>
+                      <a14:backgroundMark x1="34929" y1="31922" x2="11702" y2="20459"/>
+                      <a14:backgroundMark x1="58688" y1="33069" x2="62057" y2="29718"/>
+                      <a14:backgroundMark x1="57270" y1="29894" x2="58156" y2="24162"/>
+                      <a14:backgroundMark x1="55851" y1="26984" x2="56915" y2="24339"/>
+                      <a14:backgroundMark x1="39894" y1="38624" x2="42199" y2="39418"/>
+                      <a14:backgroundMark x1="38298" y1="34303" x2="38298" y2="34303"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="8100000">
+          <a:off x="8348848" y="7887997"/>
+          <a:ext cx="750591" cy="1508866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423487</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>501800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1431600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>914528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 2" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C28720F-10FC-49DC-BF4B-835DA1FE7935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId38">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="50813" b="90244" l="11017" r="25424">
+                      <a14:foregroundMark x1="13983" y1="90244" x2="21610" y2="89024"/>
+                      <a14:foregroundMark x1="18644" y1="50813" x2="17373" y2="54065"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9216" t="50000" r="72423" b="6976"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="13457466" y="9552214"/>
+          <a:ext cx="412728" cy="1008113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2102128</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2895778</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1415142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3F7FF9-2E9A-4E65-9683-CE7FBCA6E613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="21075928" y="7885338"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2104849</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2898499</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1404257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C825B52-8B77-4549-84E4-0264C76723C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="21073206" y="9390289"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2107570</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2901220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1406979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B46605-B6AC-4AB0-BDF8-21CF3389DC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="21075927" y="10917011"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2110292</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2903942</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1423307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE9BA9E-19EE-4618-85CE-5668F1552D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="21078649" y="12457339"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1923009</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>518937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2688829</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1385606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 2" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC49D5B-47BF-4BA2-A71A-D440538CF026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId30">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="21115" b="93832" l="55142" r="90603">
+                      <a14:foregroundMark x1="57092" y1="82325" x2="56560" y2="89561"/>
+                      <a14:foregroundMark x1="56560" y1="89561" x2="67730" y2="90985"/>
+                      <a14:foregroundMark x1="67730" y1="90985" x2="78191" y2="90747"/>
+                      <a14:foregroundMark x1="78191" y1="90747" x2="78191" y2="90629"/>
+                      <a14:foregroundMark x1="60106" y1="93832" x2="77660" y2="92052"/>
+                      <a14:foregroundMark x1="63475" y1="90510" x2="70035" y2="51246"/>
+                      <a14:foregroundMark x1="77128" y1="89087" x2="83688" y2="46026"/>
+                      <a14:foregroundMark x1="68972" y1="21234" x2="70792" y2="21322"/>
+                      <a14:foregroundMark x1="78014" y1="24318" x2="86879" y2="25979"/>
+                      <a14:foregroundMark x1="87943" y1="25741" x2="88652" y2="27877"/>
+                      <a14:foregroundMark x1="89184" y1="25030" x2="86170" y2="29893"/>
+                      <a14:foregroundMark x1="88475" y1="26453" x2="79433" y2="88375"/>
+                      <a14:foregroundMark x1="79433" y1="88375" x2="78723" y2="89561"/>
+                      <a14:foregroundMark x1="81383" y1="80427" x2="84574" y2="62752"/>
+                      <a14:foregroundMark x1="83333" y1="63820" x2="88298" y2="39383"/>
+                      <a14:foregroundMark x1="86879" y1="45552" x2="90603" y2="25030"/>
+                      <a14:foregroundMark x1="67199" y1="21352" x2="67199" y2="21352"/>
+                      <a14:foregroundMark x1="67376" y1="21115" x2="67199" y2="21115"/>
+                      <a14:foregroundMark x1="66489" y1="21234" x2="69149" y2="21352"/>
+                      <a14:backgroundMark x1="77128" y1="20759" x2="83333" y2="21827"/>
+                      <a14:backgroundMark x1="75355" y1="21115" x2="75355" y2="21115"/>
+                      <a14:backgroundMark x1="73050" y1="20878" x2="77482" y2="21471"/>
+                      <a14:backgroundMark x1="82270" y1="21590" x2="85284" y2="22183"/>
+                      <a14:backgroundMark x1="71454" y1="20759" x2="73759" y2="21234"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51571" t="19551" r="7622" b="4850"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="942826" flipH="1">
+          <a:off x="20902825" y="12921490"/>
+          <a:ext cx="765820" cy="866669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1238251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>340179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2449286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 2" descr="UnitedCutlery.Com: M48 Magnum Spear With Sheath - UC3137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231CA860-7E07-4BE5-8BDD-42C5EFBD9BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId32">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="2128" b="96454" l="3901" r="96809">
+                      <a14:foregroundMark x1="3901" y1="96631" x2="12766" y2="88830"/>
+                      <a14:foregroundMark x1="88475" y1="11170" x2="93794" y2="3369"/>
+                      <a14:foregroundMark x1="93794" y1="5319" x2="96809" y2="2128"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="14409205">
+          <a:off x="20206608" y="11212286"/>
+          <a:ext cx="1211035" cy="1211035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>738357</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>714364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>850031</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>760084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 2" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8EAD68-2A57-4D8E-8C92-0078A07831E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId40">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="50813" b="90244" l="11017" r="25424">
+                      <a14:foregroundMark x1="13983" y1="90244" x2="21610" y2="89024"/>
+                      <a14:foregroundMark x1="18644" y1="50813" x2="17373" y2="54065"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9216" t="50000" r="72423" b="6976"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="19740614" y="10035260"/>
+          <a:ext cx="45720" cy="111674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>625337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>663198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>736696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="그림 62" descr="How to Draw a Bow and Arrow ❤ liked on Polyvore featuring weapon">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D5B577-CC12-4013-A31E-E5F822426197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="62471" t="1092" r="26731" b="11714"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="19859320" y="6708565"/>
+          <a:ext cx="73498" cy="593864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787469</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>29662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1662545</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1384437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 2" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4128A726-8B36-4CA8-8878-4FAB103A568D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId43">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3817" b="56489" l="13136" r="63136">
+                      <a14:foregroundMark x1="35169" y1="4071" x2="35169" y2="9669"/>
+                      <a14:foregroundMark x1="15254" y1="49109" x2="50000" y2="51399"/>
+                      <a14:foregroundMark x1="61864" y1="50891" x2="57203" y2="25191"/>
+                      <a14:foregroundMark x1="58051" y1="24427" x2="62712" y2="34860"/>
+                      <a14:foregroundMark x1="13136" y1="51399" x2="13559" y2="48855"/>
+                      <a14:foregroundMark x1="21186" y1="56489" x2="54237" y2="53944"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9217" t="-15" r="30779" b="44230"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23491605" y="7857480"/>
+          <a:ext cx="875076" cy="1354775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2320636</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>277092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3156335</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1385456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="그림 65" descr="Wedding Mens Gold Alloy,Plastic Monocles and Monocular | Formal | Bridal | Prom | Tuxedo || Distinguished Gent Theatrical Monocle - Gold Tone">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1ECC0A1-74DE-4063-974C-96D1F1CA25F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25024772" y="9628910"/>
+          <a:ext cx="835699" cy="1108364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>909895</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1703545</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1404257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="그림 66" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7A3D8E-9A77-4891-95A6-4C134FAC61CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="23614031" y="9394000"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1125140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1279921</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>535782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9169B90A-97CA-4771-AF2B-480CD15B34CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23848218" y="9733360"/>
+          <a:ext cx="154781" cy="154781"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1251857</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>493259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1347107</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>605518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="원호 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEAF6E0-ECEB-419D-A09C-15CB66C2AE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23975786" y="9848170"/>
+          <a:ext cx="95250" cy="112259"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13781155"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>966108</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1382360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E20DB2-E90D-49CC-B273-A8C773FEBB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="34302"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23690037" y="12477750"/>
+          <a:ext cx="1319892" cy="1300717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>914398</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2234291</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1442356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68" descr="Character Set 3: Medieval Spear Man | 2D Game Character Assets">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FABA9CC-13EA-4B34-AA93-9740720A1F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23638327" y="10994570"/>
+          <a:ext cx="1319893" cy="1319893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3845,14 +5532,14 @@
       <sheetName val="index"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>0</v>
@@ -4156,17 +5843,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4188,12 +5875,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4207,7 +5894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AFDFF8-ADE8-4030-BFB0-8E086666FD57}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -4221,57 +5908,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -4284,27 +5971,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4315,13 +6003,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -4354,18 +6042,15 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -4397,36 +6082,33 @@
         <v>1.7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4458,36 +6140,33 @@
         <v>1.7</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -4519,36 +6198,33 @@
         <v>1.7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -4577,39 +6253,36 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>1.7</v>
+        <v>0.85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -4641,211 +6314,270 @@
         <v>1.7</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>근거리</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="G7" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="L7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>근거리</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>원거리</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="G8" s="2">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="L8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>근거리</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="G9" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="L9" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>근거리</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="G10" s="2">
+        <v>300</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>근거리</v>
+        <v>원거리</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4859,31 +6591,28 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="str">
@@ -4902,31 +6631,28 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="str">
@@ -4945,31 +6671,28 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="str">
@@ -4988,31 +6711,28 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="str">
@@ -5031,31 +6751,28 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="str">
@@ -5074,31 +6791,28 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
@@ -5117,31 +6831,28 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="str">
@@ -5160,31 +6871,28 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="str">
@@ -5203,31 +6911,28 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="str">
@@ -5246,31 +6951,28 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="str">
@@ -5289,31 +6991,28 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="str">
@@ -5332,36 +7031,34 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{C98B03AE-47F0-4F8C-A93E-9D4370AA8991}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5372,7 +7069,7 @@
           <x14:formula1>
             <xm:f>Index!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:S22</xm:sqref>
+          <xm:sqref>L2:R22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5382,10 +7079,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5420,42 +7117,42 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -5465,78 +7162,78 @@
         <v>근거리</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="2"/>
       <c r="O2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:C6" si="0">VLOOKUP(B3,카테고리_유닛타입,2,FALSE)</f>
+        <f t="shared" ref="C3:C10" si="0">VLOOKUP(B3,카테고리_유닛타입,2,FALSE)</f>
         <v>중거리</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="2"/>
       <c r="O3" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
@@ -5546,35 +7243,35 @@
         <v>원거리</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -5584,39 +7281,39 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -5626,34 +7323,208 @@
         <v>중거리</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="E7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
+    <row r="8" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>원거리</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>근거리</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5674,56 +7545,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5748,47 +7619,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5796,7 +7667,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60E54B7-8074-48F9-B43D-2ABA180431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF2B4D-CDF3-481A-98E9-E1714C5D963F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5974,7 +5974,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6350,7 +6350,7 @@
         <v>근거리</v>
       </c>
       <c r="D7" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>단일</v>
       </c>
       <c r="G7" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2">
         <v>25</v>
@@ -6466,7 +6466,7 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>근거리</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -7081,8 +7081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF2B4D-CDF3-481A-98E9-E1714C5D963F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC3782C-442B-466A-A122-7BAE146B7F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'유닛 테이블'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'유닛 테이블'!$A$1:$S$1</definedName>
     <definedName name="카테고르_유닛타입">Index!$C$2:$D$4</definedName>
     <definedName name="카테고리_유닛타입">[1]index!$C$2:$D$4</definedName>
     <definedName name="카테고리_피해타입">Index!$F$2:$G$3</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="122">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 시간(딜레이)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,6 +634,14 @@
     <t>양 손으로 장창을 들고 있습니다.
 뿔이 하나 달린 투구를 쓰고 있습니다.
 공격 시 전방을 향해 창을 찌릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시간(애니메이션 재생 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 딜레이 시간(공격 후 대기 시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5843,17 +5847,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5875,12 +5879,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5894,7 +5898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AFDFF8-ADE8-4030-BFB0-8E086666FD57}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -5908,57 +5912,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -5971,10 +5975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5985,14 +5989,15 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.125" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6003,13 +6008,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -6018,39 +6023,42 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -6079,36 +6087,39 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
         <v>1.7</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -6137,36 +6148,39 @@
         <v>3</v>
       </c>
       <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
         <v>1.7</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -6195,36 +6209,39 @@
         <v>4</v>
       </c>
       <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
         <v>1.7</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -6253,36 +6270,39 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.85</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="L5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -6311,36 +6331,39 @@
         <v>3</v>
       </c>
       <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
         <v>1.7</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="L6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -6371,44 +6394,47 @@
       <c r="J7" s="2">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>원거리</v>
+        <v>중거리</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -6427,36 +6453,39 @@
         <v>6</v>
       </c>
       <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
         <v>1.7</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="L8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -6485,36 +6514,39 @@
         <v>3</v>
       </c>
       <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
         <v>1.7</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="L9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -6543,34 +6575,37 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>1.7</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>2</v>
@@ -6590,29 +6625,30 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="str">
@@ -6630,29 +6666,30 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="str">
@@ -6670,29 +6707,30 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="str">
@@ -6710,29 +6748,30 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="str">
@@ -6750,29 +6789,30 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="str">
@@ -6790,29 +6830,30 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
@@ -6830,29 +6871,30 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="str">
@@ -6870,29 +6912,30 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="str">
@@ -6910,29 +6953,30 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="str">
@@ -6950,29 +6994,30 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="str">
@@ -6990,29 +7035,30 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="str">
@@ -7030,35 +7076,36 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{C98B03AE-47F0-4F8C-A93E-9D4370AA8991}"/>
+  <autoFilter ref="A1:S1" xr:uid="{C98B03AE-47F0-4F8C-A93E-9D4370AA8991}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7069,7 +7116,7 @@
           <x14:formula1>
             <xm:f>Index!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:R22</xm:sqref>
+          <xm:sqref>M2:S22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7081,7 +7128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -7114,45 +7161,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -7162,40 +7209,40 @@
         <v>근거리</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="2"/>
       <c r="O2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -7205,35 +7252,35 @@
         <v>중거리</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="2"/>
       <c r="O3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
@@ -7243,35 +7290,35 @@
         <v>원거리</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -7281,39 +7328,39 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -7323,37 +7370,37 @@
         <v>중거리</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -7363,39 +7410,39 @@
         <v>근거리</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -7405,37 +7452,37 @@
         <v>원거리</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -7445,39 +7492,39 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -7487,34 +7534,34 @@
         <v>근거리</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7545,56 +7592,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7619,47 +7666,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -7667,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC3782C-442B-466A-A122-7BAE146B7F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C66D3B9-4C78-4CCC-BA4B-C516D370C35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="공통 애니메이션" sheetId="4" r:id="rId3"/>
     <sheet name="유닛 테이블" sheetId="1" r:id="rId4"/>
     <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId5"/>
-    <sheet name="유닛 UI" sheetId="6" r:id="rId6"/>
-    <sheet name="Index" sheetId="3" r:id="rId7"/>
+    <sheet name="Unit_Table" sheetId="10" r:id="rId6"/>
+    <sheet name="Wave_Table" sheetId="11" r:id="rId7"/>
+    <sheet name="유닛 UI" sheetId="6" r:id="rId8"/>
+    <sheet name="Index" sheetId="3" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'유닛 테이블'!$A$1:$S$1</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="131">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +644,42 @@
   </si>
   <si>
     <t>공격 딜레이 시간(공격 후 대기 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -772,6 +810,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5898,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AFDFF8-ADE8-4030-BFB0-8E086666FD57}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -5977,8 +6017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6068,7 +6108,7 @@
         <v>근거리</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -6129,7 +6169,7 @@
         <v>중거리</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -6190,7 +6230,7 @@
         <v>원거리</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -6251,7 +6291,7 @@
         <v>근거리</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -6312,7 +6352,7 @@
         <v>중거리</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -6373,14 +6413,14 @@
         <v>근거리</v>
       </c>
       <c r="D7" s="2">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>단일</v>
+        <v>범위</v>
       </c>
       <c r="G7" s="2">
         <v>60</v>
@@ -6434,7 +6474,7 @@
         <v>중거리</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -6495,7 +6535,7 @@
         <v>근거리</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -6559,11 +6599,11 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>단일</v>
+        <v>범위</v>
       </c>
       <c r="G10" s="2">
         <v>300</v>
@@ -7128,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7581,6 +7621,1378 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9AB1D1-9F44-4DF7-B600-9258127ADA8B}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'유닛 테이블'!L2</f>
+        <v>Unit_Wolfclub</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'유닛 테이블'!H2</f>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'유닛 테이블'!G2</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'유닛 테이블'!D2</f>
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'유닛 테이블'!K2</f>
+        <v>1.7</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'유닛 테이블'!J2</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'유닛 테이블'!E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'유닛 테이블'!L3</f>
+        <v>Unit_Wolfslingshot</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'유닛 테이블'!H3</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'유닛 테이블'!G3</f>
+        <v>80</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'유닛 테이블'!D3</f>
+        <v>3.5</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'유닛 테이블'!K3</f>
+        <v>1.7</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'유닛 테이블'!J3</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'유닛 테이블'!E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'유닛 테이블'!L4</f>
+        <v>Unit_Wolfshaman</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'유닛 테이블'!H4</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'유닛 테이블'!G4</f>
+        <v>60</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'유닛 테이블'!D4</f>
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'유닛 테이블'!K4</f>
+        <v>1.7</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'유닛 테이블'!J4</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'유닛 테이블'!E4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>'유닛 테이블'!L5</f>
+        <v>Unit_Wolfdestoryer</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'유닛 테이블'!H5</f>
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'유닛 테이블'!G5</f>
+        <v>1000</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'유닛 테이블'!D5</f>
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'유닛 테이블'!K5</f>
+        <v>0.85</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'유닛 테이블'!J5</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'유닛 테이블'!E5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>'유닛 테이블'!L6</f>
+        <v>Unit_Wolfarcher</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'유닛 테이블'!H6</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'유닛 테이블'!G6</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'유닛 테이블'!D6</f>
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'유닛 테이블'!K6</f>
+        <v>1.7</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'유닛 테이블'!J6</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'유닛 테이블'!E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>'유닛 테이블'!L7</f>
+        <v>Unit_Wolfthief</v>
+      </c>
+      <c r="C7" s="2">
+        <f>'유닛 테이블'!H7</f>
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <f>'유닛 테이블'!G7</f>
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <f>'유닛 테이블'!D7</f>
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>'유닛 테이블'!K7</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <f>'유닛 테이블'!J7</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <f>'유닛 테이블'!E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>'유닛 테이블'!L8</f>
+        <v>Unit_Wolfshooter</v>
+      </c>
+      <c r="C8" s="2">
+        <f>'유닛 테이블'!H8</f>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <f>'유닛 테이블'!G8</f>
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <f>'유닛 테이블'!D8</f>
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="2">
+        <f>'유닛 테이블'!K8</f>
+        <v>1.7</v>
+      </c>
+      <c r="G8" s="2">
+        <f>'유닛 테이블'!J8</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <f>'유닛 테이블'!E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>'유닛 테이블'!L9</f>
+        <v>Unit_Wolfspearman</v>
+      </c>
+      <c r="C9" s="2">
+        <f>'유닛 테이블'!H9</f>
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <f>'유닛 테이블'!G9</f>
+        <v>90</v>
+      </c>
+      <c r="E9" s="2">
+        <f>'유닛 테이블'!D9</f>
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="2">
+        <f>'유닛 테이블'!K9</f>
+        <v>1.7</v>
+      </c>
+      <c r="G9" s="2">
+        <f>'유닛 테이블'!J9</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <f>'유닛 테이블'!E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>'유닛 테이블'!L10</f>
+        <v>Unit_Wolfshieldman</v>
+      </c>
+      <c r="C10" s="2">
+        <f>'유닛 테이블'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f>'유닛 테이블'!G10</f>
+        <v>300</v>
+      </c>
+      <c r="E10" s="2">
+        <f>'유닛 테이블'!D10</f>
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <f>'유닛 테이블'!K10</f>
+        <v>1.7</v>
+      </c>
+      <c r="G10" s="2">
+        <f>'유닛 테이블'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f>'유닛 테이블'!E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81712710-3484-4EB9-A929-3A6AD75B31FD}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13957405-1ACB-4EC8-A303-46C9C91B58E3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -7651,7 +9063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E759E4-51CC-4987-8161-A65C71BCFC16}">
   <dimension ref="A1:G4"/>
   <sheetViews>

--- a/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
+++ b/유닛 및 건물/늑대 유닛 시스템 및 디자인.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\유닛 및 건물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED5930-F63F-4B58-9F3D-EC240F20FA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3696C1-91B1-4CA3-BAAA-01AB72A700F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3450" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -2505,7 +2505,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20622810" y="4842781"/>
+          <a:off x="20617367" y="4856388"/>
           <a:ext cx="1310897" cy="1514476"/>
           <a:chOff x="20628253" y="4848224"/>
           <a:chExt cx="1310897" cy="1514476"/>
@@ -4152,19 +4152,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -4184,14 +4184,14 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -4211,15 +4211,15 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
     <col min="3" max="3" width="122.5" customWidth="1"/>
-    <col min="4" max="9" width="10.625" customWidth="1"/>
+    <col min="4" max="9" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -4290,21 +4290,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str">
@@ -4711,7 +4711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="str">
@@ -4754,7 +4754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="str">
@@ -4797,7 +4797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str">
@@ -4840,7 +4840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="str">
@@ -4883,7 +4883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="str">
@@ -4926,7 +4926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="str">
@@ -4969,7 +4969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="str">
@@ -5012,7 +5012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="str">
@@ -5055,7 +5055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="str">
@@ -5098,7 +5098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
@@ -5141,7 +5141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="str">
@@ -5184,7 +5184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="str">
@@ -5227,7 +5227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="str">
@@ -5270,7 +5270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="str">
@@ -5313,7 +5313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="str">
@@ -5356,7 +5356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -5388,25 +5388,25 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="26.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.875" customWidth="1"/>
-    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8984375" customWidth="1"/>
+    <col min="11" max="11" width="33.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="49.25" customWidth="1"/>
-    <col min="14" max="14" width="46.125" customWidth="1"/>
-    <col min="15" max="15" width="65.125" customWidth="1"/>
+    <col min="13" max="13" width="49.19921875" customWidth="1"/>
+    <col min="14" max="14" width="46.09765625" customWidth="1"/>
+    <col min="15" max="15" width="65.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
@@ -5670,19 +5670,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -5691,37 +5691,37 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -5741,12 +5741,12 @@
       <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" s="2">
         <v>2</v>
       </c>
